--- a/ours/zoom/results/std.xlsx
+++ b/ours/zoom/results/std.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,28 +487,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01671315436121479</v>
+        <v>0.02617631799169684</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2789171167628317</v>
+        <v>0.2180831200514422</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1745106235237595</v>
+        <v>0.1907581135680515</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1439697737772978</v>
+        <v>0.1610008309696688</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2215172742064676</v>
+        <v>0.2118109382852209</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1439697737772978</v>
+        <v>0.1610008309696688</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1466456585088553</v>
+        <v>0.1185191493607132</v>
       </c>
     </row>
     <row r="3">
@@ -518,28 +518,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04315807478884139</v>
+        <v>0.04287215273697437</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08382783475023947</v>
+        <v>0.05670078892892109</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1612237508814978</v>
+        <v>0.1428912042974371</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1535189165402815</v>
+        <v>0.1435574687698581</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1336024909753385</v>
+        <v>0.1034022207708261</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1535189165402815</v>
+        <v>0.143651538779897</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05505280872635934</v>
+        <v>0.04319231539452215</v>
       </c>
     </row>
     <row r="4">
@@ -549,91 +549,63 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05078751227988328</v>
+        <v>0.05461887919246698</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03051686484022759</v>
+        <v>0.02206647236713461</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1021267377285342</v>
+        <v>0.07644609972290778</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1209327223773616</v>
+        <v>0.1022429276692561</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06606718667002956</v>
+        <v>0.0440213872024352</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1209327223773616</v>
+        <v>0.1022429276692561</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03431857179102598</v>
+        <v>0.03354983053547869</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-1B</t>
+          <t>B-CoAtNet</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1568525709185405</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.2461778399951203</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.1862935471921535</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.1677259842172394</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.2045790782187358</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.168498880706277</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.191367945783927</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-1B</t>
+          <t>B-CoAtNet</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2200975856540903</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.2878366892004469</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.284458771245911</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.260037501962104</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.2896593336853349</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.2619093847091968</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.231263362183756</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -642,399 +614,659 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1909932769985361</v>
+        <v>0.1469628378646864</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1343879676341904</v>
+        <v>0.2966950708850793</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2196515724008925</v>
+        <v>0.2113202647203039</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2198650848432192</v>
+        <v>0.189973258008198</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1789705332589353</v>
+        <v>0.2541399539340236</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2174001162621365</v>
+        <v>0.1903026195383004</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1355858859321215</v>
+        <v>0.2051994206028273</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-3B</t>
+          <t>LLAMA-3.2-1B</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03851274251766089</v>
+        <v>0.1796001673269447</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1204677230122468</v>
+        <v>0.225447987998727</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06132010572955684</v>
+        <v>0.2609777385174321</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0575282136392669</v>
+        <v>0.2413135855449191</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0875906951465855</v>
+        <v>0.2475694208307825</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0575282136392669</v>
+        <v>0.2408230834731286</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07405064817028566</v>
+        <v>0.1755367884186904</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-3B</t>
+          <t>LLAMA-3.2-1B</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1273310977570097</v>
+        <v>0.1410867462372833</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2861854711204908</v>
+        <v>0.05490491394677587</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1836742284859852</v>
+        <v>0.1170797043739452</v>
       </c>
       <c r="F9" t="n">
-        <v>0.16235800775478</v>
+        <v>0.1365784262580869</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2418236971092732</v>
+        <v>0.08428309756362769</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1648129743191072</v>
+        <v>0.1349702136600855</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1980892486875267</v>
+        <v>0.07844863117708657</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-3B</t>
+          <t>LLAMA-3.2-1B</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1732404735683637</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.2285212159020848</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.2340742536087125</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.2113387193169906</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.2412183012435556</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.2142531431014184</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.1894214143718825</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LLAMA-3.1-8B</t>
+          <t>LLAMA-3.2-1B</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.02183952248925576</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.08571385947794694</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.03353800312200516</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.03284713076408724</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.06081702058312839</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.03284713076408724</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.05167301658405794</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LLAMA-3.1-8B</t>
+          <t>LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1168305651893331</v>
+        <v>0.06633843841123281</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2701318808703395</v>
+        <v>0.2106943199570794</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1544526362986557</v>
+        <v>0.1013345404596491</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1363646946754478</v>
+        <v>0.09223755795795005</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2168925465265813</v>
+        <v>0.1592913596990048</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1394746580672819</v>
+        <v>0.09234105908478203</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1865019787063408</v>
+        <v>0.1335941683844735</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LLAMA-3.1-8B</t>
+          <t>LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1658311274204053</v>
+        <v>0.1609241986571181</v>
       </c>
       <c r="D13" t="n">
-        <v>0.257762674200152</v>
+        <v>0.273470587215116</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2200965833822058</v>
+        <v>0.2164622730349171</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1991693167699376</v>
+        <v>0.1954612459181336</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2463229606704656</v>
+        <v>0.2523108052595022</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2023113807870515</v>
+        <v>0.1971945501610068</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2009442299589985</v>
+        <v>0.2071554428332106</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GPT-4o</t>
+          <t>LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.007897549706549219</v>
+        <v>0.1478520065667073</v>
       </c>
       <c r="D14" t="n">
-        <v>0.05436343926804513</v>
+        <v>0.1262115472140012</v>
       </c>
       <c r="E14" t="n">
-        <v>0.02097890886384492</v>
+        <v>0.1905736736870066</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0217137400689501</v>
+        <v>0.1841221328141198</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03766703660297083</v>
+        <v>0.1623003119139495</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0217137400689501</v>
+        <v>0.1855442659884814</v>
       </c>
       <c r="I14" t="n">
-        <v>0.03019874919813661</v>
+        <v>0.1278013967436529</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GPT-4o</t>
+          <t>LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.03945022209002831</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.1432225022596371</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.07100886318753072</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.06514925481667037</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.1127533812278129</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.06560928969186651</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.08847156062377709</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GPT-4o</t>
+          <t>LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.09216383030202978</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.2505567304023948</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.1456161026424675</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.1354693594952101</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.2037196301758901</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.13562983424382</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.1666090590506361</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fine-tuned LLAMA-3.2-3B</t>
+          <t>LLAMA-3.1-8B</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02147509613089294</v>
+        <v>0.04855055109546626</v>
       </c>
       <c r="D17" t="n">
-        <v>0.09751490687559608</v>
+        <v>0.16661707850991</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0449428346858347</v>
+        <v>0.07621160184402635</v>
       </c>
       <c r="F17" t="n">
-        <v>0.04220610484949609</v>
+        <v>0.07049157613889473</v>
       </c>
       <c r="G17" t="n">
-        <v>0.08159190459784026</v>
+        <v>0.1288994673088546</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04261626354790921</v>
+        <v>0.07179501418222804</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05700037944455812</v>
+        <v>0.1032076094955744</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fine-tuned LLAMA-3.2-3B</t>
+          <t>LLAMA-3.1-8B</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06622420944656189</v>
+        <v>0.1442151466877679</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1988682953217193</v>
+        <v>0.2875991751402364</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1018209956397769</v>
+        <v>0.1858909661491182</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0935260907138471</v>
+        <v>0.168461812713003</v>
       </c>
       <c r="G18" t="n">
-        <v>0.158359943401449</v>
+        <v>0.2416035809051146</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0938137936796135</v>
+        <v>0.1724300996157711</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1283150467917223</v>
+        <v>0.2075731796106856</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>LLAMA-3.1-8B</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1542391642358255</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1514854211506171</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.2002599929962937</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.1884086133222504</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.1828306696624832</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.1896523167788665</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.1429376106727879</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>LLAMA-3.1-8B</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>LLAMA-3.1-8B</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>GPT-4o</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.01076367969774895</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.07023526384445343</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.03068266363259696</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.03094717573580147</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05959795712692056</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.03120560819005222</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.03910159925802518</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>GPT-4o</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.04056068059172596</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.1519557213473212</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.07315230927320453</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.07008587379297575</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.1205005730032047</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.07026292274669946</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.09285909129751276</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>GPT-4o</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1503529939518146</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.3031284580835641</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.2176933049822547</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.1989213327517574</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.2681913283829623</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.1997627315622426</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.2198592037763734</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>GPT-4o</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>GPT-4o</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>6</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>Fine-tuned LLAMA-3.2-3B</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" t="n">
+      <c r="B27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.01779815891687207</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.09888324035299802</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.04266457339426348</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.04228706875769315</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.07948928497482245</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.04228706875769315</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.05671414530233825</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fine-tuned LLAMA-3.2-3B</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.06172517893277837</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.1839070819417289</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.08761206864819562</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.08456395383691713</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1429389743279048</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.08493474172440869</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.1186580345318908</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Fine-tuned LLAMA-3.2-3B</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1570736837414749</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.3241793698522356</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.211270988538547</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.1977571981888471</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.279311458037213</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.1992661471565355</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.2359691379094535</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Fine-tuned LLAMA-3.2-3B</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.06622420944656189</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.1988682953217193</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.1018209956397768</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0935260907138471</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.158359943401449</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0938137936796135</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.1283150467917223</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fine-tuned LLAMA-3.2-3B</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>6</v>
+      </c>
+      <c r="C31" t="n">
         <v>0.1415066791327047</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D31" t="n">
         <v>0.2902149217627359</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E31" t="n">
         <v>0.1800740543109258</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F31" t="n">
         <v>0.1657408978569219</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G31" t="n">
         <v>0.2437922909889937</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H31" t="n">
         <v>0.1672773214603038</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I31" t="n">
         <v>0.2099861261012676</v>
       </c>
     </row>

--- a/ours/zoom/results/std.xlsx
+++ b/ours/zoom/results/std.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,36 +576,64 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>B-CoAtNet</t>
+          <t>LLAMA-3.2-1B</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+        <v>0.1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1469628378646864</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2966950708850793</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.2113202647203039</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.189973258008198</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.2541399539340236</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1903026195383004</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.2051994206028273</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>B-CoAtNet</t>
+          <t>LLAMA-3.2-1B</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+        <v>0.5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1796001673269447</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.225447987998727</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.2609777385174321</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2413135855449191</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.2475694208307825</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.2408230834731286</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1755367884186904</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -614,660 +642,400 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1469628378646864</v>
+        <v>0.1410867462372833</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2966950708850793</v>
+        <v>0.05490491394677587</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2113202647203039</v>
+        <v>0.1170797043739452</v>
       </c>
       <c r="F7" t="n">
-        <v>0.189973258008198</v>
+        <v>0.1365784262580869</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2541399539340236</v>
+        <v>0.08428309756362769</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1903026195383004</v>
+        <v>0.1349702136600855</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2051994206028273</v>
+        <v>0.07844863117708657</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-1B</t>
+          <t>LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1796001673269447</v>
+        <v>0.06633843841123281</v>
       </c>
       <c r="D8" t="n">
-        <v>0.225447987998727</v>
+        <v>0.2106943199570794</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2609777385174321</v>
+        <v>0.1013345404596491</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2413135855449191</v>
+        <v>0.09223755795795005</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2475694208307825</v>
+        <v>0.1592913596990048</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2408230834731286</v>
+        <v>0.09234105908478203</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1755367884186904</v>
+        <v>0.1335941683844735</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-1B</t>
+          <t>LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1410867462372833</v>
+        <v>0.1609241986571181</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05490491394677587</v>
+        <v>0.273470587215116</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1170797043739452</v>
+        <v>0.2164622730349171</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1365784262580869</v>
+        <v>0.1954612459181336</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08428309756362769</v>
+        <v>0.2523108052595022</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1349702136600855</v>
+        <v>0.1971945501610068</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07844863117708657</v>
+        <v>0.2071554428332106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-1B</t>
+          <t>LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1478520065667073</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1262115472140012</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1905736736870066</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1841221328141198</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1623003119139495</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1855442659884814</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1278013967436529</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-1B</t>
+          <t>LLAMA-3.1-8B</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+        <v>0.1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.04855055109546626</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.16661707850991</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.07621160184402635</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.07049157613889473</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.1288994673088546</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.07179501418222804</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1032076094955744</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-3B</t>
+          <t>LLAMA-3.1-8B</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06633843841123281</v>
+        <v>0.1442151466877679</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2106943199570794</v>
+        <v>0.2875991751402364</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1013345404596491</v>
+        <v>0.1858909661491182</v>
       </c>
       <c r="F12" t="n">
-        <v>0.09223755795795005</v>
+        <v>0.168461812713003</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1592913596990048</v>
+        <v>0.2416035809051146</v>
       </c>
       <c r="H12" t="n">
-        <v>0.09234105908478203</v>
+        <v>0.1724300996157711</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1335941683844735</v>
+        <v>0.2075731796106856</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-3B</t>
+          <t>LLAMA-3.1-8B</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1609241986571181</v>
+        <v>0.1542391642358255</v>
       </c>
       <c r="D13" t="n">
-        <v>0.273470587215116</v>
+        <v>0.1514854211506171</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2164622730349171</v>
+        <v>0.2002599929962937</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1954612459181336</v>
+        <v>0.1884086133222504</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2523108052595022</v>
+        <v>0.1828306696624832</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1971945501610068</v>
+        <v>0.1896523167788665</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2071554428332106</v>
+        <v>0.1429376106727879</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-3B</t>
+          <t>GPT-4o</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1478520065667073</v>
+        <v>0.01076367969774895</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1262115472140012</v>
+        <v>0.07023526384445343</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1905736736870066</v>
+        <v>0.03068266363259696</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1841221328141198</v>
+        <v>0.03094717573580147</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1623003119139495</v>
+        <v>0.05959795712692056</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1855442659884814</v>
+        <v>0.03120560819005222</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1278013967436529</v>
+        <v>0.03910159925802518</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-3B</t>
+          <t>GPT-4o</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+        <v>0.5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.04056068059172596</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.1519557213473212</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.07315230927320453</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.07008587379297575</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.1205005730032047</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.07026292274669946</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.09285909129751276</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-3B</t>
+          <t>GPT-4o</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1503529939518146</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.3031284580835641</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.2176933049822547</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.1989213327517574</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.2681913283829623</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.1997627315622426</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.2198592037763734</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LLAMA-3.1-8B</t>
+          <t>LLAMA-3.2-3B (Fine-tuned)</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0.1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04855055109546626</v>
+        <v>0.01779815891687207</v>
       </c>
       <c r="D17" t="n">
-        <v>0.16661707850991</v>
+        <v>0.09888324035299802</v>
       </c>
       <c r="E17" t="n">
-        <v>0.07621160184402635</v>
+        <v>0.04266457339426348</v>
       </c>
       <c r="F17" t="n">
-        <v>0.07049157613889473</v>
+        <v>0.04228706875769315</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1288994673088546</v>
+        <v>0.07948928497482245</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07179501418222804</v>
+        <v>0.04228706875769315</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1032076094955744</v>
+        <v>0.05671414530233825</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LLAMA-3.1-8B</t>
+          <t>LLAMA-3.2-3B (Fine-tuned)</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>0.5</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1442151466877679</v>
+        <v>0.06172517893277837</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2875991751402364</v>
+        <v>0.1839070819417289</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1858909661491182</v>
+        <v>0.08761206864819562</v>
       </c>
       <c r="F18" t="n">
-        <v>0.168461812713003</v>
+        <v>0.08456395383691713</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2416035809051146</v>
+        <v>0.1429389743279048</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1724300996157711</v>
+        <v>0.08493474172440869</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2075731796106856</v>
+        <v>0.1186580345318908</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LLAMA-3.1-8B</t>
+          <t>LLAMA-3.2-3B (Fine-tuned)</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1542391642358255</v>
+        <v>0.169423603744505</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1514854211506171</v>
+        <v>0.303331640018737</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2002599929962937</v>
+        <v>0.2263261955391054</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1884086133222504</v>
+        <v>0.2081340742479606</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1828306696624832</v>
+        <v>0.271860511792842</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1896523167788665</v>
+        <v>0.2098325164610302</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1429376106727879</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LLAMA-3.1-8B</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LLAMA-3.1-8B</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>6</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>GPT-4o</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.01076367969774895</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.07023526384445343</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.03068266363259696</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.03094717573580147</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.05959795712692056</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.03120560819005222</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.03910159925802518</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>GPT-4o</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.04056068059172596</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.1519557213473212</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.07315230927320453</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.07008587379297575</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.1205005730032047</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.07026292274669946</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.09285909129751276</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>GPT-4o</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.1503529939518146</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.3031284580835641</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.2176933049822547</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.1989213327517574</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.2681913283829623</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.1997627315622426</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.2198592037763734</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>GPT-4o</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>5</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>GPT-4o</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>6</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Fine-tuned LLAMA-3.2-3B</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.01779815891687207</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.09888324035299802</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.04266457339426348</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.04228706875769315</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.07948928497482245</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.04228706875769315</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.05671414530233825</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Fine-tuned LLAMA-3.2-3B</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.06172517893277837</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.1839070819417289</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.08761206864819562</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.08456395383691713</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.1429389743279048</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.08493474172440869</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.1186580345318908</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Fine-tuned LLAMA-3.2-3B</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.1570736837414749</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.3241793698522356</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.211270988538547</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.1977571981888471</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.279311458037213</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.1992661471565355</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.2359691379094535</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Fine-tuned LLAMA-3.2-3B</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>5</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.06622420944656189</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.1988682953217193</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.1018209956397768</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.0935260907138471</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.158359943401449</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.0938137936796135</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.1283150467917223</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Fine-tuned LLAMA-3.2-3B</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>6</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.1415066791327047</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.2902149217627359</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.1800740543109258</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.1657408978569219</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.2437922909889937</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.1672773214603038</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.2099861261012676</v>
+        <v>0.2291006883518798</v>
       </c>
     </row>
   </sheetData>
